--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1548.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1548.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.293155468486131</v>
+        <v>1.628571629524231</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.541851043701172</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.16127872467041</v>
       </c>
       <c r="D1">
-        <v>1.597931335276109</v>
+        <v>1.301671981811523</v>
       </c>
       <c r="E1">
-        <v>0.9103163360442439</v>
+        <v>0.7635176181793213</v>
       </c>
     </row>
   </sheetData>
